--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/65/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/65/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7317317317317317</v>
+        <v>0.7057705770577057</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1769.76976976977</v>
+        <v>1318.781878187819</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01641641641641642</v>
+        <v>0.05498549854985499</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8198198198198198</v>
+        <v>0.9091909190919092</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>432.4324324324324</v>
+        <v>1157.835783578358</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>651.6516516516517</v>
+        <v>303.060306030603</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>219.2192192192192</v>
+        <v>840.6435643564356</v>
       </c>
     </row>
   </sheetData>
